--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>PROSPECTO</t>
   </si>
@@ -48,6 +48,216 @@
   </si>
   <si>
     <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>Gomez Mario</t>
+  </si>
+  <si>
+    <t>26262626</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Dejaron sus datos</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:02 p. m.</t>
+  </si>
+  <si>
+    <t>Olarte Luisa</t>
+  </si>
+  <si>
+    <t>Alarcón Carlos</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>El higal I</t>
+  </si>
+  <si>
+    <t>Rodriguez Ricardo</t>
+  </si>
+  <si>
+    <t>26262627</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:03 p. m.</t>
+  </si>
+  <si>
+    <t>Chicoma Rosa</t>
+  </si>
+  <si>
+    <t>25252526</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:04 p. m.</t>
+  </si>
+  <si>
+    <t>Carrasco Pablo</t>
+  </si>
+  <si>
+    <t>Llontop Frank</t>
+  </si>
+  <si>
+    <t>23232323</t>
+  </si>
+  <si>
+    <t>mmmm</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:06 p. m.</t>
+  </si>
+  <si>
+    <t>Ponce Alejandro</t>
+  </si>
+  <si>
+    <t>Villanueva Omar</t>
+  </si>
+  <si>
+    <t>23232324</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>Villalobos Richard</t>
+  </si>
+  <si>
+    <t>23232325</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronado  Adrian </t>
+  </si>
+  <si>
+    <t>22222223</t>
+  </si>
+  <si>
+    <t>ggggg</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:07 p. m.</t>
+  </si>
+  <si>
+    <t>Pachigua Noé</t>
+  </si>
+  <si>
+    <t>Diaz Jordan</t>
+  </si>
+  <si>
+    <t>24242424</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>Contestaron llamada o Whatsapp</t>
+  </si>
+  <si>
+    <t>19/10/2022 01:05 p. m.</t>
+  </si>
+  <si>
+    <t>Peralta José</t>
+  </si>
+  <si>
+    <t>Gil Carmen</t>
+  </si>
+  <si>
+    <t>24242426</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>Interés por el producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquen Diana </t>
+  </si>
+  <si>
+    <t>25252527</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Programación de Visita</t>
+  </si>
+  <si>
+    <t>Parra Manuel</t>
+  </si>
+  <si>
+    <t>22222224</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>Norma Alaya</t>
+  </si>
+  <si>
+    <t>26262629</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>En conversación</t>
+  </si>
+  <si>
+    <t>Leon Cesar</t>
+  </si>
+  <si>
+    <t>24242425</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Antoni Gonzales</t>
+  </si>
+  <si>
+    <t>22222222</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>Separados</t>
+  </si>
+  <si>
+    <t>18/10/2022 04:06 p. m.</t>
+  </si>
+  <si>
+    <t>Albujar Mayra</t>
+  </si>
+  <si>
+    <t>25252525</t>
+  </si>
+  <si>
+    <t>ññññ</t>
+  </si>
+  <si>
+    <t>Por abonar</t>
+  </si>
+  <si>
+    <t>18/10/2022 04:21 p. m.</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>El higal II</t>
   </si>
 </sst>
 </file>
@@ -128,14 +338,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.12109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.1875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.1640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.515625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.68359375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.48046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="30.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.03125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.515625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.48046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="21.99609375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="12.39453125" customWidth="true" bestFit="true"/>
@@ -180,6 +390,546 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PROSPECTO</t>
   </si>
@@ -48,39 +48,6 @@
   </si>
   <si>
     <t>RESULTADO</t>
-  </si>
-  <si>
-    <t>quispe  omar</t>
-  </si>
-  <si>
-    <t>42173501</t>
-  </si>
-  <si>
-    <t>950402977</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Separados</t>
-  </si>
-  <si>
-    <t>16/11/2022 05:25 p. m.</t>
-  </si>
-  <si>
-    <t>asesor1 asesor1</t>
-  </si>
-  <si>
-    <t>super1 super1</t>
-  </si>
-  <si>
-    <t>Campo</t>
-  </si>
-  <si>
-    <t>HIGAL III ETAPA I</t>
   </si>
 </sst>
 </file>
@@ -166,12 +133,12 @@
     <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.1640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.2734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.2578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.515625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.68359375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.48046875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.48046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="21.99609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="13.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -213,42 +180,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Acciones.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PROSPECTO</t>
   </si>
@@ -48,6 +48,39 @@
   </si>
   <si>
     <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>quispe  omar</t>
+  </si>
+  <si>
+    <t>42173501</t>
+  </si>
+  <si>
+    <t>950402977</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Contestaron llamada o Whatsapp</t>
+  </si>
+  <si>
+    <t>27/12/2022 12:02 p. m.</t>
+  </si>
+  <si>
+    <t>asesor1 asesor1</t>
+  </si>
+  <si>
+    <t>super1 super1</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTOS DE SAN ROQUE III </t>
   </si>
 </sst>
 </file>
@@ -133,12 +166,12 @@
     <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.1640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.515625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.68359375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.48046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="30.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.48046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="21.99609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="13.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -180,6 +213,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
